--- a/bin/NhapThuoc_27_10_25.xlsx
+++ b/bin/NhapThuoc_27_10_25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12885"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Thuỵ Sĩ</t>
+  </si>
+  <si>
+    <t>TTTH20</t>
+  </si>
+  <si>
+    <t>Omega3</t>
+  </si>
+  <si>
+    <t>Lọ</t>
   </si>
 </sst>
 </file>
@@ -1064,20 +1073,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.8611111111111" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="11" max="11" width="9.57142857142857" customWidth="1"/>
-    <col min="12" max="12" width="16.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="9.57407407407407" customWidth="1"/>
+    <col min="12" max="12" width="16.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="10.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1308,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>46673</v>
+        <v>46672</v>
       </c>
       <c r="I6">
         <v>100</v>
@@ -1324,6 +1333,47 @@
       </c>
       <c r="M6">
         <v>990000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>46672</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <v>150000</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>24750000</v>
       </c>
     </row>
   </sheetData>

--- a/bin/NhapThuoc_27_10_25.xlsx
+++ b/bin/NhapThuoc_27_10_25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>TTTH1</t>
   </si>
   <si>
-    <t>Metformin</t>
+    <t>Metformin 500mg</t>
   </si>
   <si>
     <t>Viên nén</t>
@@ -89,7 +89,7 @@
     <t>TTTH4</t>
   </si>
   <si>
-    <t>Paracetamol</t>
+    <t>Paracetamol 500mg</t>
   </si>
   <si>
     <t>Mỹ</t>
@@ -98,7 +98,7 @@
     <t>TTTH6</t>
   </si>
   <si>
-    <t>Vitamin C</t>
+    <t>Vitamin C 1000mg</t>
   </si>
   <si>
     <t>Anh</t>
@@ -110,13 +110,13 @@
     <t>TTTH7</t>
   </si>
   <si>
-    <t>Ibuprofen</t>
+    <t>Ibuprofen 400mg</t>
   </si>
   <si>
     <t>TTTH10</t>
   </si>
   <si>
-    <t>Amlodipine</t>
+    <t>Amlodipine 5mg</t>
   </si>
   <si>
     <t>Thuỵ Sĩ</t>
@@ -125,7 +125,7 @@
     <t>TTTH20</t>
   </si>
   <si>
-    <t>Omega3</t>
+    <t>Omega-3 Alaska</t>
   </si>
   <si>
     <t>Lọ</t>
@@ -1076,17 +1076,17 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="11" max="11" width="9.57407407407407" customWidth="1"/>
-    <col min="12" max="12" width="16.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="10.4259259259259" customWidth="1"/>
+    <col min="11" max="11" width="9.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="16.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
